--- a/outputs-HGR-r202/g__Collinsella.xlsx
+++ b/outputs-HGR-r202/g__Collinsella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1090,6 +1140,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1147,6 +1202,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1204,6 +1264,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1261,6 +1326,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1318,6 +1388,11 @@
           <t>s__Collinsella tanakaei</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>s__Collinsella tanakaei(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1375,6 +1450,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1432,6 +1512,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1489,6 +1574,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1546,6 +1636,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1603,6 +1698,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1660,6 +1760,11 @@
           <t>s__Collinsella aerofaciens_J</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1713,6 +1818,11 @@
         <v>0.2912466307250092</v>
       </c>
       <c r="Q22" t="inlineStr">
+        <is>
+          <t>s__Collinsella aerofaciens_J</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>s__Collinsella aerofaciens_J</t>
         </is>

--- a/outputs-HGR-r202/g__Collinsella.xlsx
+++ b/outputs-HGR-r202/g__Collinsella.xlsx
@@ -1514,7 +1514,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>s__Collinsella tanakaei</t>
+          <t>s__Collinsella tanakaei(reject)</t>
         </is>
       </c>
     </row>
